--- a/data files/treatment monitoring.xlsx
+++ b/data files/treatment monitoring.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alishamsaley/Documents/GitHub/CV_growth/data files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372A6E77-8EAD-044A-A82F-4AE56BD74F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{45C55884-5B61-4545-B91A-EBBC9E1F36CB}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -116,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -244,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -296,7 +293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -490,27 +487,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF451A-289B-4A42-BDAB-10F5631F616B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:114" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,7 +563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:114" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:114" s="6" customFormat="1">
       <c r="A2" s="1">
         <v>44776</v>
       </c>
@@ -708,7 +705,7 @@
       <c r="DI2"/>
       <c r="DJ2"/>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:114">
       <c r="A3" s="1">
         <v>44776</v>
       </c>
@@ -749,7 +746,7 @@
         <v>1973.74693320094</v>
       </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:114">
       <c r="A4" s="1">
         <v>44776</v>
       </c>
@@ -790,7 +787,7 @@
         <v>985.97758491686295</v>
       </c>
     </row>
-    <row r="5" spans="1:114" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:114" s="6" customFormat="1">
       <c r="A5" s="1">
         <v>44776</v>
       </c>
@@ -932,7 +929,7 @@
       <c r="DI5"/>
       <c r="DJ5"/>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:114">
       <c r="A6" s="1">
         <v>44776</v>
       </c>
@@ -973,7 +970,7 @@
         <v>3062.2883377978501</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:114">
       <c r="A7" s="1">
         <v>44776</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>2044.3832293318101</v>
       </c>
     </row>
-    <row r="8" spans="1:114" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:114" s="6" customFormat="1">
       <c r="A8" s="1">
         <v>44776</v>
       </c>
@@ -1156,7 +1153,7 @@
       <c r="DI8" s="3"/>
       <c r="DJ8" s="3"/>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:114">
       <c r="A9" s="1">
         <v>44776</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>996.24562381532996</v>
       </c>
     </row>
-    <row r="10" spans="1:114" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:114" s="6" customFormat="1">
       <c r="A10" s="1">
         <v>44776</v>
       </c>
@@ -1339,7 +1336,7 @@
       <c r="DI10"/>
       <c r="DJ10"/>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:114">
       <c r="A11" s="1">
         <v>44776</v>
       </c>
@@ -1380,7 +1377,7 @@
         <v>2991.2444531566098</v>
       </c>
     </row>
-    <row r="12" spans="1:114" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:114" s="6" customFormat="1">
       <c r="A12" s="1">
         <v>44776</v>
       </c>
@@ -1522,7 +1519,7 @@
       <c r="DI12"/>
       <c r="DJ12"/>
     </row>
-    <row r="13" spans="1:114" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:114" s="6" customFormat="1">
       <c r="A13" s="1">
         <v>44776</v>
       </c>
@@ -1664,7 +1661,7 @@
       <c r="DI13"/>
       <c r="DJ13"/>
     </row>
-    <row r="14" spans="1:114" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:114" s="6" customFormat="1">
       <c r="A14" s="1">
         <v>44776</v>
       </c>
@@ -1806,7 +1803,7 @@
       <c r="DI14"/>
       <c r="DJ14"/>
     </row>
-    <row r="15" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:114" s="3" customFormat="1">
       <c r="A15" s="1">
         <v>44776</v>
       </c>
@@ -1948,7 +1945,7 @@
       <c r="DI15"/>
       <c r="DJ15"/>
     </row>
-    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:114">
       <c r="A16" s="1">
         <v>44779</v>
       </c>
@@ -1986,14 +1983,14 @@
         <v>45.6</v>
       </c>
       <c r="M16">
-        <f>M30-0.1</f>
+        <f t="shared" ref="M16:M29" si="0">M30-0.1</f>
         <v>29</v>
       </c>
       <c r="R16">
         <v>670.58629885037999</v>
       </c>
     </row>
-    <row r="17" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:114">
       <c r="A17" s="1">
         <v>44779</v>
       </c>
@@ -2031,14 +2028,14 @@
         <v>61.1</v>
       </c>
       <c r="M17">
-        <f>M31-0.1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="R17">
         <v>1951.5348140987801</v>
       </c>
     </row>
-    <row r="18" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:114">
       <c r="A18" s="1">
         <v>44779</v>
       </c>
@@ -2076,14 +2073,14 @@
         <v>50.6</v>
       </c>
       <c r="M18">
-        <f>M32-0.1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="R18">
         <v>912.69131828174</v>
       </c>
     </row>
-    <row r="19" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:114">
       <c r="A19" s="1">
         <v>44779</v>
       </c>
@@ -2121,14 +2118,14 @@
         <v>61.4</v>
       </c>
       <c r="M19">
-        <f>M33-0.1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="R19">
         <v>2131.8480159914202</v>
       </c>
     </row>
-    <row r="20" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:114">
       <c r="A20" s="1">
         <v>44779</v>
       </c>
@@ -2166,14 +2163,14 @@
         <v>61</v>
       </c>
       <c r="M20">
-        <f>M34-0.1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="R20">
         <v>3031.2696720539602</v>
       </c>
     </row>
-    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:114">
       <c r="A21" s="1">
         <v>44779</v>
       </c>
@@ -2211,14 +2208,14 @@
         <v>57.4</v>
       </c>
       <c r="M21">
-        <f>M35-0.1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="R21">
         <v>1871.98917612174</v>
       </c>
     </row>
-    <row r="22" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:114">
       <c r="A22" s="1">
         <v>44779</v>
       </c>
@@ -2256,14 +2253,14 @@
         <v>57.7</v>
       </c>
       <c r="M22">
-        <f>M36-0.1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="R22">
         <v>2236.8246233617201</v>
       </c>
     </row>
-    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:114">
       <c r="A23" s="1">
         <v>44779</v>
       </c>
@@ -2301,14 +2298,14 @@
         <v>53.8</v>
       </c>
       <c r="M23">
-        <f>M37-0.1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="R23">
         <v>880.14278195979398</v>
       </c>
     </row>
-    <row r="24" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:114">
       <c r="A24" s="1">
         <v>44779</v>
       </c>
@@ -2346,7 +2343,7 @@
         <v>57.9</v>
       </c>
       <c r="M24">
-        <f>M38-0.1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="O24" t="s">
@@ -2356,7 +2353,7 @@
         <v>2204.5682999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:114">
       <c r="A25" s="1">
         <v>44779</v>
       </c>
@@ -2394,7 +2391,7 @@
         <v>60.6</v>
       </c>
       <c r="M25">
-        <f>M39-0.1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="O25" t="s">
@@ -2404,7 +2401,7 @@
         <v>2892.5651899999998</v>
       </c>
     </row>
-    <row r="26" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:114">
       <c r="A26" s="1">
         <v>44779</v>
       </c>
@@ -2442,7 +2439,7 @@
         <v>51.3</v>
       </c>
       <c r="M26">
-        <f>M40-0.1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="O26" t="s">
@@ -2452,7 +2449,7 @@
         <v>1430.89499</v>
       </c>
     </row>
-    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:114">
       <c r="A27" s="1">
         <v>44779</v>
       </c>
@@ -2490,7 +2487,7 @@
         <v>48.3</v>
       </c>
       <c r="M27">
-        <f>M41-0.1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="O27" t="s">
@@ -2500,7 +2497,7 @@
         <v>681.98031700000001</v>
       </c>
     </row>
-    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:114">
       <c r="A28" s="1">
         <v>44779</v>
       </c>
@@ -2538,7 +2535,7 @@
         <v>50.9</v>
       </c>
       <c r="M28">
-        <f>M42-0.1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="O28" t="s">
@@ -2550,7 +2547,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:114" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:114" s="6" customFormat="1">
       <c r="A29" s="1">
         <v>44779</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>59.2</v>
       </c>
       <c r="M29">
-        <f>M43-0.1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="N29"/>
@@ -2697,7 +2694,7 @@
       <c r="DI29"/>
       <c r="DJ29"/>
     </row>
-    <row r="30" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:114">
       <c r="A30" s="1">
         <v>44779</v>
       </c>
@@ -2735,7 +2732,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="M30">
-        <f>N30+0.1</f>
+        <f t="shared" ref="M30:M43" si="1">N30+0.1</f>
         <v>29.1</v>
       </c>
       <c r="N30">
@@ -2745,7 +2742,7 @@
         <v>1045.58560981714</v>
       </c>
     </row>
-    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:114">
       <c r="A31" s="1">
         <v>44779</v>
       </c>
@@ -2783,7 +2780,7 @@
         <v>50.9</v>
       </c>
       <c r="M31">
-        <f>N31+0.1</f>
+        <f t="shared" si="1"/>
         <v>30.1</v>
       </c>
       <c r="N31">
@@ -2793,7 +2790,7 @@
         <v>2112.7638178782199</v>
       </c>
     </row>
-    <row r="32" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:114">
       <c r="A32" s="1">
         <v>44779</v>
       </c>
@@ -2831,7 +2828,7 @@
         <v>41.2</v>
       </c>
       <c r="M32">
-        <f>N32+0.1</f>
+        <f t="shared" si="1"/>
         <v>31.1</v>
       </c>
       <c r="N32">
@@ -2841,7 +2838,7 @@
         <v>1199.3248329621199</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>44779</v>
       </c>
@@ -2879,7 +2876,7 @@
         <v>58.5</v>
       </c>
       <c r="M33">
-        <f>N33+0.1</f>
+        <f t="shared" si="1"/>
         <v>32.1</v>
       </c>
       <c r="N33">
@@ -2889,7 +2886,7 @@
         <v>2419.1328303939499</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>44779</v>
       </c>
@@ -2927,7 +2924,7 @@
         <v>64.599999999999994</v>
       </c>
       <c r="M34">
-        <f>N34+0.1</f>
+        <f t="shared" si="1"/>
         <v>33.1</v>
       </c>
       <c r="N34">
@@ -2937,7 +2934,7 @@
         <v>3223.1670021889499</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>44779</v>
       </c>
@@ -2975,7 +2972,7 @@
         <v>55.8</v>
       </c>
       <c r="M35">
-        <f>N35+0.1</f>
+        <f t="shared" si="1"/>
         <v>34.1</v>
       </c>
       <c r="N35">
@@ -2985,7 +2982,7 @@
         <v>2217.4245900174901</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>44779</v>
       </c>
@@ -3023,7 +3020,7 @@
         <v>60.3</v>
       </c>
       <c r="M36">
-        <f>N36+0.1</f>
+        <f t="shared" si="1"/>
         <v>35.1</v>
       </c>
       <c r="N36">
@@ -3033,7 +3030,7 @@
         <v>2288.5306729532799</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>44779</v>
       </c>
@@ -3071,7 +3068,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="M37">
-        <f>N37+0.1</f>
+        <f t="shared" si="1"/>
         <v>36.1</v>
       </c>
       <c r="N37">
@@ -3081,7 +3078,7 @@
         <v>1184.3414975214801</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>44779</v>
       </c>
@@ -3119,7 +3116,7 @@
         <v>57.4</v>
       </c>
       <c r="M38">
-        <f>N38+0.1</f>
+        <f t="shared" si="1"/>
         <v>37.1</v>
       </c>
       <c r="N38">
@@ -3129,7 +3126,7 @@
         <v>2365.4060134460301</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>44779</v>
       </c>
@@ -3167,7 +3164,7 @@
         <v>61.6</v>
       </c>
       <c r="M39">
-        <f>N39+0.1</f>
+        <f t="shared" si="1"/>
         <v>38.1</v>
       </c>
       <c r="N39">
@@ -3177,7 +3174,7 @@
         <v>3121.2444714747498</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>44779</v>
       </c>
@@ -3215,7 +3212,7 @@
         <v>50.1</v>
       </c>
       <c r="M40">
-        <f>N40+0.1</f>
+        <f t="shared" si="1"/>
         <v>39.1</v>
       </c>
       <c r="N40">
@@ -3225,7 +3222,7 @@
         <v>1622.6124971073</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>44779</v>
       </c>
@@ -3263,7 +3260,7 @@
         <v>31.7</v>
       </c>
       <c r="M41">
-        <f>N41+0.1</f>
+        <f t="shared" si="1"/>
         <v>40.1</v>
       </c>
       <c r="N41">
@@ -3273,7 +3270,7 @@
         <v>1622.06211755198</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>44779</v>
       </c>
@@ -3311,7 +3308,7 @@
         <v>40.5</v>
       </c>
       <c r="M42">
-        <f>N42+0.1</f>
+        <f t="shared" si="1"/>
         <v>41.1</v>
       </c>
       <c r="N42">
@@ -3323,7 +3320,7 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21">
       <c r="A43" s="5">
         <v>44779</v>
       </c>
@@ -3361,7 +3358,7 @@
         <v>43</v>
       </c>
       <c r="M43" s="6">
-        <f>N43+0.1</f>
+        <f t="shared" si="1"/>
         <v>42.1</v>
       </c>
       <c r="N43">
@@ -3373,7 +3370,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>44782</v>
       </c>
@@ -3422,7 +3419,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21">
       <c r="A45" s="1">
         <v>44782</v>
       </c>
@@ -3471,7 +3468,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21">
       <c r="A46" s="1">
         <v>44782</v>
       </c>
@@ -3520,7 +3517,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21">
       <c r="A47" s="1">
         <v>44782</v>
       </c>
@@ -3569,7 +3566,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21">
       <c r="A48" s="1">
         <v>44782</v>
       </c>
@@ -3618,7 +3615,7 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>44782</v>
       </c>
@@ -3667,7 +3664,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>44782</v>
       </c>
@@ -3716,7 +3713,7 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21">
       <c r="A51" s="1">
         <v>44782</v>
       </c>
@@ -3765,7 +3762,7 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21">
       <c r="A52" s="1">
         <v>44782</v>
       </c>
@@ -3814,7 +3811,7 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21">
       <c r="A53" s="1">
         <v>44782</v>
       </c>
@@ -3860,7 +3857,7 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21">
       <c r="A54" s="1">
         <v>44782</v>
       </c>
@@ -3906,7 +3903,7 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21">
       <c r="A55" s="1">
         <v>44782</v>
       </c>
@@ -3952,7 +3949,7 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21">
       <c r="A56" s="1">
         <v>44782</v>
       </c>
@@ -3998,7 +3995,7 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21">
       <c r="A57" s="1">
         <v>44782</v>
       </c>
@@ -4044,7 +4041,7 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21">
       <c r="A58" s="1">
         <v>44782</v>
       </c>
@@ -4093,7 +4090,7 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21">
       <c r="A59" s="1">
         <v>44782</v>
       </c>
@@ -4142,7 +4139,7 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21">
       <c r="A60" s="1">
         <v>44782</v>
       </c>
@@ -4191,7 +4188,7 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21">
       <c r="A61" s="1">
         <v>44782</v>
       </c>
@@ -4240,7 +4237,7 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21">
       <c r="A62" s="1">
         <v>44782</v>
       </c>
@@ -4289,7 +4286,7 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21">
       <c r="A63" s="1">
         <v>44782</v>
       </c>
@@ -4338,7 +4335,7 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21">
       <c r="A64" s="1">
         <v>44782</v>
       </c>
@@ -4387,7 +4384,7 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21">
       <c r="A65" s="1">
         <v>44782</v>
       </c>
@@ -4436,7 +4433,7 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21">
       <c r="A66" s="1">
         <v>44782</v>
       </c>
@@ -4485,7 +4482,7 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21">
       <c r="A67" s="1">
         <v>44782</v>
       </c>
@@ -4534,7 +4531,7 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21">
       <c r="A68" s="1">
         <v>44782</v>
       </c>
@@ -4583,7 +4580,7 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21">
       <c r="A69" s="1">
         <v>44782</v>
       </c>
@@ -4632,7 +4629,7 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21">
       <c r="A70" s="1">
         <v>44782</v>
       </c>
@@ -4681,7 +4678,7 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21">
       <c r="A71" s="1">
         <v>44782</v>
       </c>
@@ -4730,7 +4727,7 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21">
       <c r="A72" s="1">
         <v>44785</v>
       </c>
@@ -4776,7 +4773,7 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21">
       <c r="A73" s="1">
         <v>44785</v>
       </c>
@@ -4822,7 +4819,7 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21">
       <c r="A74" s="1">
         <v>44785</v>
       </c>
@@ -4868,7 +4865,7 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21">
       <c r="A75" s="1">
         <v>44785</v>
       </c>
@@ -4914,7 +4911,7 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21">
       <c r="A76" s="1">
         <v>44785</v>
       </c>
@@ -4958,7 +4955,7 @@
         <v>2830.9818690819702</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21">
       <c r="A77" s="1">
         <v>44785</v>
       </c>
@@ -5002,7 +4999,7 @@
         <v>1866.8356583233201</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21">
       <c r="A78" s="1">
         <v>44785</v>
       </c>
@@ -5046,7 +5043,7 @@
         <v>2229.98237884726</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21">
       <c r="A79" s="1">
         <v>44785</v>
       </c>
@@ -5090,7 +5087,7 @@
         <v>796.05677264596</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21">
       <c r="A80" s="1">
         <v>44785</v>
       </c>
@@ -5134,7 +5131,7 @@
         <v>2085.8241756360599</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:21">
       <c r="A81" s="1">
         <v>44785</v>
       </c>
@@ -5178,7 +5175,7 @@
         <v>2845.2039767019701</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:21">
       <c r="A82" s="1">
         <v>44785</v>
       </c>
@@ -5222,7 +5219,7 @@
         <v>1394.8454034317299</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:21">
       <c r="A83" s="1">
         <v>44785</v>
       </c>
@@ -5266,7 +5263,7 @@
         <v>667.980737559766</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:21">
       <c r="A84" s="1">
         <v>44785</v>
       </c>
@@ -5310,7 +5307,7 @@
         <v>1423.18235310462</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:21">
       <c r="A85" s="1">
         <v>44785</v>
       </c>
@@ -5354,7 +5351,7 @@
         <v>767.91579925181804</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:21">
       <c r="A86" s="1">
         <v>44785</v>
       </c>
@@ -5396,7 +5393,7 @@
         <v>#REF!</v>
       </c>
       <c r="N86" t="e">
-        <f>M86-0.1</f>
+        <f t="shared" ref="N86:N99" si="2">M86-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="R86" s="4">
@@ -5405,7 +5402,7 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:21">
       <c r="A87" s="1">
         <v>44785</v>
       </c>
@@ -5443,11 +5440,11 @@
         <v>48.3</v>
       </c>
       <c r="M87">
-        <f>M73+0.1</f>
+        <f t="shared" ref="M87:M99" si="3">M73+0.1</f>
         <v>72.099999999999994</v>
       </c>
       <c r="N87">
-        <f>M87-0.1</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="R87" s="4">
@@ -5456,7 +5453,7 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:21">
       <c r="A88" s="1">
         <v>44785</v>
       </c>
@@ -5494,11 +5491,11 @@
         <v>36.700000000000003</v>
       </c>
       <c r="M88">
-        <f>M74+0.1</f>
+        <f t="shared" si="3"/>
         <v>73.099999999999994</v>
       </c>
       <c r="N88">
-        <f>M88-0.1</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="R88" s="4">
@@ -5507,7 +5504,7 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:21">
       <c r="A89" s="1">
         <v>44785</v>
       </c>
@@ -5545,11 +5542,11 @@
         <v>59.2</v>
       </c>
       <c r="M89">
-        <f>M75+0.1</f>
+        <f t="shared" si="3"/>
         <v>74.099999999999994</v>
       </c>
       <c r="N89">
-        <f>M89-0.1</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="R89" s="4">
@@ -5558,7 +5555,7 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:21">
       <c r="A90" s="1">
         <v>44785</v>
       </c>
@@ -5596,18 +5593,18 @@
         <v>57.6</v>
       </c>
       <c r="M90">
-        <f>M76+0.1</f>
+        <f t="shared" si="3"/>
         <v>75.099999999999994</v>
       </c>
       <c r="N90">
-        <f>M90-0.1</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="R90" s="4">
         <v>2916.1405800000002</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:21">
       <c r="A91" s="1">
         <v>44785</v>
       </c>
@@ -5645,18 +5642,18 @@
         <v>50.2</v>
       </c>
       <c r="M91">
-        <f>M77+0.1</f>
+        <f t="shared" si="3"/>
         <v>76.099999999999994</v>
       </c>
       <c r="N91">
-        <f>M91-0.1</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="R91" s="4">
         <v>1904.8762300000001</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:21">
       <c r="A92" s="1">
         <v>44785</v>
       </c>
@@ -5694,18 +5691,18 @@
         <v>59.6</v>
       </c>
       <c r="M92">
-        <f>M78+0.1</f>
+        <f t="shared" si="3"/>
         <v>77.099999999999994</v>
       </c>
       <c r="N92">
-        <f>M92-0.1</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="R92" s="4">
         <v>2253.6196399999999</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21">
       <c r="A93" s="1">
         <v>44785</v>
       </c>
@@ -5743,18 +5740,18 @@
         <v>40.700000000000003</v>
       </c>
       <c r="M93">
-        <f>M79+0.1</f>
+        <f t="shared" si="3"/>
         <v>78.099999999999994</v>
       </c>
       <c r="N93">
-        <f>M93-0.1</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="R93" s="4">
         <v>972.49961399999995</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21">
       <c r="A94" s="1">
         <v>44785</v>
       </c>
@@ -5792,18 +5789,18 @@
         <v>57.9</v>
       </c>
       <c r="M94">
-        <f>M80+0.1</f>
+        <f t="shared" si="3"/>
         <v>79.099999999999994</v>
       </c>
       <c r="N94">
-        <f>M94-0.1</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="R94" s="4">
         <v>1979.96812</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21">
       <c r="A95" s="1">
         <v>44785</v>
       </c>
@@ -5841,18 +5838,18 @@
         <v>60</v>
       </c>
       <c r="M95">
-        <f>M81+0.1</f>
+        <f t="shared" si="3"/>
         <v>80.099999999999994</v>
       </c>
       <c r="N95">
-        <f>M95-0.1</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="R95" s="4">
         <v>2914.6664000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21">
       <c r="A96" s="1">
         <v>44785</v>
       </c>
@@ -5890,18 +5887,18 @@
         <v>51.3</v>
       </c>
       <c r="M96">
-        <f>M82+0.1</f>
+        <f t="shared" si="3"/>
         <v>81.099999999999994</v>
       </c>
       <c r="N96">
-        <f>M96-0.1</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="R96" s="4">
         <v>1556.4492600000001</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" s="1">
         <v>44785</v>
       </c>
@@ -5939,18 +5936,18 @@
         <v>36.9</v>
       </c>
       <c r="M97">
-        <f>M83+0.1</f>
+        <f t="shared" si="3"/>
         <v>82.1</v>
       </c>
       <c r="N97">
-        <f>M97-0.1</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="R97" s="4">
         <v>928.32995100000005</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" s="1">
         <v>44785</v>
       </c>
@@ -5988,18 +5985,18 @@
         <v>40.6</v>
       </c>
       <c r="M98">
-        <f>M84+0.1</f>
+        <f t="shared" si="3"/>
         <v>83.1</v>
       </c>
       <c r="N98">
-        <f>M98-0.1</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="R98" s="4">
         <v>1542.80313</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" s="1">
         <v>44785</v>
       </c>
@@ -6037,18 +6034,18 @@
         <v>43</v>
       </c>
       <c r="M99">
-        <f>M85+0.1</f>
+        <f t="shared" si="3"/>
         <v>84.1</v>
       </c>
       <c r="N99">
-        <f>M99-0.1</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="R99" s="4">
         <v>760.434798</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" s="1">
         <v>44788</v>
       </c>
@@ -6092,7 +6089,7 @@
         <v>674.99936061355902</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" s="1">
         <v>44788</v>
       </c>
@@ -6136,7 +6133,7 @@
         <v>1949.52223501908</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" s="1">
         <v>44788</v>
       </c>
@@ -6180,7 +6177,7 @@
         <v>935.18269781878701</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" s="1">
         <v>44788</v>
       </c>
@@ -6224,7 +6221,7 @@
         <v>2185.6644543825601</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" s="1">
         <v>44788</v>
       </c>
@@ -6268,7 +6265,7 @@
         <v>2943.3879172644401</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" s="1">
         <v>44788</v>
       </c>
@@ -6312,7 +6309,7 @@
         <v>1948.3610054006599</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" s="1">
         <v>44788</v>
       </c>
@@ -6356,7 +6353,7 @@
         <v>2233.7696518950502</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" s="1">
         <v>44788</v>
       </c>
@@ -6400,7 +6397,7 @@
         <v>886.49820930898602</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18">
       <c r="A108" s="1">
         <v>44788</v>
       </c>
@@ -6444,7 +6441,7 @@
         <v>2215.8488091805798</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" s="1">
         <v>44788</v>
       </c>
@@ -6488,7 +6485,7 @@
         <v>2776.5876558790301</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" s="1">
         <v>44788</v>
       </c>
@@ -6532,7 +6529,7 @@
         <v>1440.8398048142999</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" s="1">
         <v>44788</v>
       </c>
@@ -6576,7 +6573,7 @@
         <v>662.93081164410899</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" s="1">
         <v>44788</v>
       </c>
@@ -6620,7 +6617,7 @@
         <v>1446.4436614491501</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="1">
         <v>44788</v>
       </c>
@@ -6664,7 +6661,7 @@
         <v>839.42061378579297</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" s="1">
         <v>44788</v>
       </c>
@@ -6706,14 +6703,14 @@
         <v>#REF!</v>
       </c>
       <c r="N114" t="e">
-        <f>M114-0.1</f>
+        <f t="shared" ref="N114:N127" si="4">M114-0.1</f>
         <v>#REF!</v>
       </c>
       <c r="R114">
         <v>905.10108514252295</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" s="1">
         <v>44788</v>
       </c>
@@ -6751,18 +6748,18 @@
         <v>52.3</v>
       </c>
       <c r="M115">
-        <f>M101+0.1</f>
+        <f t="shared" ref="M115:M127" si="5">M101+0.1</f>
         <v>86.1</v>
       </c>
       <c r="N115">
-        <f>M115-0.1</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="R115">
         <v>2040.1061153779599</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" s="1">
         <v>44788</v>
       </c>
@@ -6800,18 +6797,18 @@
         <v>36.700000000000003</v>
       </c>
       <c r="M116">
-        <f>M102+0.1</f>
+        <f t="shared" si="5"/>
         <v>87.1</v>
       </c>
       <c r="N116">
-        <f>M116-0.1</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="R116">
         <v>994.42519352707995</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" s="1">
         <v>44788</v>
       </c>
@@ -6849,18 +6846,18 @@
         <v>56.6</v>
       </c>
       <c r="M117">
-        <f>M103+0.1</f>
+        <f t="shared" si="5"/>
         <v>88.1</v>
       </c>
       <c r="N117">
-        <f>M117-0.1</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="R117">
         <v>2237.5930420190898</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" s="1">
         <v>44788</v>
       </c>
@@ -6898,18 +6895,18 @@
         <v>59.4</v>
       </c>
       <c r="M118">
-        <f>M104+0.1</f>
+        <f t="shared" si="5"/>
         <v>89.1</v>
       </c>
       <c r="N118">
-        <f>M118-0.1</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="R118">
         <v>2921.7614735909701</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" s="1">
         <v>44788</v>
       </c>
@@ -6947,18 +6944,18 @@
         <v>51.6</v>
       </c>
       <c r="M119">
-        <f>M105+0.1</f>
+        <f t="shared" si="5"/>
         <v>90.1</v>
       </c>
       <c r="N119">
-        <f>M119-0.1</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="R119">
         <v>1996.3152169192499</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" s="1">
         <v>44788</v>
       </c>
@@ -6996,18 +6993,18 @@
         <v>59.6</v>
       </c>
       <c r="M120">
-        <f>M106+0.1</f>
+        <f t="shared" si="5"/>
         <v>91.1</v>
       </c>
       <c r="N120">
-        <f>M120-0.1</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="R120">
         <v>2242.2427667565998</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" s="1">
         <v>44788</v>
       </c>
@@ -7045,18 +7042,18 @@
         <v>37.299999999999997</v>
       </c>
       <c r="M121">
-        <f>M107+0.1</f>
+        <f t="shared" si="5"/>
         <v>92.1</v>
       </c>
       <c r="N121">
-        <f>M121-0.1</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="R121">
         <v>996.96878856230205</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" s="1">
         <v>44788</v>
       </c>
@@ -7094,18 +7091,18 @@
         <v>51.8</v>
       </c>
       <c r="M122">
-        <f>M108+0.1</f>
+        <f t="shared" si="5"/>
         <v>93.1</v>
       </c>
       <c r="N122">
-        <f>M122-0.1</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="R122">
         <v>2182.4335042039402</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" s="1">
         <v>44788</v>
       </c>
@@ -7143,18 +7140,18 @@
         <v>60.2</v>
       </c>
       <c r="M123">
-        <f>M109+0.1</f>
+        <f t="shared" si="5"/>
         <v>94.1</v>
       </c>
       <c r="N123">
-        <f>M123-0.1</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="R123">
         <v>2951.6614496995098</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" s="1">
         <v>44788</v>
       </c>
@@ -7192,18 +7189,18 @@
         <v>35.299999999999997</v>
       </c>
       <c r="M124">
-        <f>M110+0.1</f>
+        <f t="shared" si="5"/>
         <v>95.1</v>
       </c>
       <c r="N124">
-        <f>M124-0.1</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="R124">
         <v>1557.4134150822999</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" s="1">
         <v>44788</v>
       </c>
@@ -7241,18 +7238,18 @@
         <v>29.3</v>
       </c>
       <c r="M125">
-        <f>M111+0.1</f>
+        <f t="shared" si="5"/>
         <v>96.1</v>
       </c>
       <c r="N125">
-        <f>M125-0.1</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="R125">
         <v>959.27374457329199</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" s="1">
         <v>44788</v>
       </c>
@@ -7290,18 +7287,18 @@
         <v>37.299999999999997</v>
       </c>
       <c r="M126">
-        <f>M112+0.1</f>
+        <f t="shared" si="5"/>
         <v>97.1</v>
       </c>
       <c r="N126">
-        <f>M126-0.1</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="R126">
         <v>1590.48231886849</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" s="1">
         <v>44788</v>
       </c>
@@ -7339,18 +7336,18 @@
         <v>38.6</v>
       </c>
       <c r="M127">
-        <f>M113+0.1</f>
+        <f t="shared" si="5"/>
         <v>98.1</v>
       </c>
       <c r="N127">
-        <f>M127-0.1</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="R127">
         <v>783.16139254252801</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" s="1">
         <v>44791</v>
       </c>
@@ -7394,7 +7391,7 @@
         <v>543.13075115638401</v>
       </c>
     </row>
-    <row r="129" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:114">
       <c r="A129" s="1">
         <v>44791</v>
       </c>
@@ -7438,7 +7435,7 @@
         <v>1791.1507558777801</v>
       </c>
     </row>
-    <row r="130" spans="1:114" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:114" s="6" customFormat="1">
       <c r="A130" s="1">
         <v>44791</v>
       </c>
@@ -7582,7 +7579,7 @@
       <c r="DI130"/>
       <c r="DJ130"/>
     </row>
-    <row r="131" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:114">
       <c r="A131" s="1">
         <v>44791</v>
       </c>
@@ -7626,7 +7623,7 @@
         <v>2200.8504649996298</v>
       </c>
     </row>
-    <row r="132" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:114">
       <c r="A132" s="1">
         <v>44791</v>
       </c>
@@ -7670,7 +7667,7 @@
         <v>2811.9991657120099</v>
       </c>
     </row>
-    <row r="133" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:114">
       <c r="A133" s="1">
         <v>44791</v>
       </c>
@@ -7714,7 +7711,7 @@
         <v>1828.07962186128</v>
       </c>
     </row>
-    <row r="134" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:114">
       <c r="A134" s="1">
         <v>44791</v>
       </c>
@@ -7758,7 +7755,7 @@
         <v>2238.6677528463001</v>
       </c>
     </row>
-    <row r="135" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:114">
       <c r="A135" s="1">
         <v>44791</v>
       </c>
@@ -7802,7 +7799,7 @@
         <v>781.02371677438896</v>
       </c>
     </row>
-    <row r="136" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:114">
       <c r="A136" s="1">
         <v>44791</v>
       </c>
@@ -7846,7 +7843,7 @@
         <v>2139.9978978334998</v>
       </c>
     </row>
-    <row r="137" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:114">
       <c r="A137" s="1">
         <v>44791</v>
       </c>
@@ -7890,7 +7887,7 @@
         <v>2889.0570761558101</v>
       </c>
     </row>
-    <row r="138" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:114">
       <c r="A138" s="1">
         <v>44791</v>
       </c>
@@ -7934,7 +7931,7 @@
         <v>1471.7338770921101</v>
       </c>
     </row>
-    <row r="139" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:114">
       <c r="A139" s="1">
         <v>44791</v>
       </c>
@@ -7978,7 +7975,7 @@
         <v>706.24832764633504</v>
       </c>
     </row>
-    <row r="140" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:114">
       <c r="A140" s="1">
         <v>44791</v>
       </c>
@@ -8022,7 +8019,7 @@
         <v>1408.18121163928</v>
       </c>
     </row>
-    <row r="141" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:114">
       <c r="A141" s="1">
         <v>44791</v>
       </c>
@@ -8066,7 +8063,7 @@
         <v>796.389933365096</v>
       </c>
     </row>
-    <row r="142" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:114">
       <c r="A142" s="1">
         <v>44791</v>
       </c>
@@ -8104,18 +8101,18 @@
         <v>18.3</v>
       </c>
       <c r="M142">
-        <f>M128+0.1</f>
+        <f t="shared" ref="M142:M155" si="6">M128+0.1</f>
         <v>99.1</v>
       </c>
       <c r="N142">
-        <f>M142-0.1</f>
+        <f t="shared" ref="N142:N155" si="7">M142-0.1</f>
         <v>99</v>
       </c>
       <c r="R142">
         <v>1124.9072626951499</v>
       </c>
     </row>
-    <row r="143" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:114">
       <c r="A143" s="1">
         <v>44791</v>
       </c>
@@ -8153,18 +8150,18 @@
         <v>51.1</v>
       </c>
       <c r="M143">
-        <f>M129+0.1</f>
+        <f t="shared" si="6"/>
         <v>100.1</v>
       </c>
       <c r="N143">
-        <f>M143-0.1</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="R143">
         <v>2164.01582051998</v>
       </c>
     </row>
-    <row r="144" spans="1:114" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:114">
       <c r="A144" s="5">
         <v>44791</v>
       </c>
@@ -8202,18 +8199,18 @@
         <v>36.9</v>
       </c>
       <c r="M144" s="6">
-        <f>M130+0.1</f>
+        <f t="shared" si="6"/>
         <v>101.1</v>
       </c>
       <c r="N144">
-        <f>M144-0.1</f>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
       <c r="R144" s="6">
         <v>1217.1200935660399</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18">
       <c r="A145" s="1">
         <v>44791</v>
       </c>
@@ -8251,18 +8248,18 @@
         <v>50.8</v>
       </c>
       <c r="M145">
-        <f>M131+0.1</f>
+        <f t="shared" si="6"/>
         <v>102.1</v>
       </c>
       <c r="N145">
-        <f>M145-0.1</f>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
       <c r="R145">
         <v>2404.7466572663102</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18">
       <c r="A146" s="1">
         <v>44791</v>
       </c>
@@ -8300,18 +8297,18 @@
         <v>54.8</v>
       </c>
       <c r="M146">
-        <f>M132+0.1</f>
+        <f t="shared" si="6"/>
         <v>103.1</v>
       </c>
       <c r="N146">
-        <f>M146-0.1</f>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="R146">
         <v>3139.4941838807599</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18">
       <c r="A147" s="1">
         <v>44791</v>
       </c>
@@ -8349,18 +8346,18 @@
         <v>50.9</v>
       </c>
       <c r="M147">
-        <f>M133+0.1</f>
+        <f t="shared" si="6"/>
         <v>104.1</v>
       </c>
       <c r="N147">
-        <f>M147-0.1</f>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
       <c r="R147">
         <v>2158.6441295043701</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18">
       <c r="A148" s="1">
         <v>44791</v>
       </c>
@@ -8398,18 +8395,18 @@
         <v>59.9</v>
       </c>
       <c r="M148">
-        <f>M134+0.1</f>
+        <f t="shared" si="6"/>
         <v>105.1</v>
       </c>
       <c r="N148">
-        <f>M148-0.1</f>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="R148">
         <v>2281.92350924025</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18">
       <c r="A149" s="1">
         <v>44791</v>
       </c>
@@ -8447,18 +8444,18 @@
         <v>37.4</v>
       </c>
       <c r="M149">
-        <f>M135+0.1</f>
+        <f t="shared" si="6"/>
         <v>106.1</v>
       </c>
       <c r="N149">
-        <f>M149-0.1</f>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="R149">
         <v>1170.8763623960001</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18">
       <c r="A150" s="1">
         <v>44791</v>
       </c>
@@ -8496,18 +8493,18 @@
         <v>58.8</v>
       </c>
       <c r="M150">
-        <f>M136+0.1</f>
+        <f t="shared" si="6"/>
         <v>107.1</v>
       </c>
       <c r="N150">
-        <f>M150-0.1</f>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="R150">
         <v>2432.0715444546699</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18">
       <c r="A151" s="1">
         <v>44791</v>
       </c>
@@ -8545,18 +8542,18 @@
         <v>59.8</v>
       </c>
       <c r="M151">
-        <f>M137+0.1</f>
+        <f t="shared" si="6"/>
         <v>108.1</v>
       </c>
       <c r="N151">
-        <f>M151-0.1</f>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
       <c r="R151">
         <v>3157.97176461754</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18">
       <c r="A152" s="1">
         <v>44791</v>
       </c>
@@ -8594,18 +8591,18 @@
         <v>47.6</v>
       </c>
       <c r="M152">
-        <f>M138+0.1</f>
+        <f t="shared" si="6"/>
         <v>109.1</v>
       </c>
       <c r="N152">
-        <f>M152-0.1</f>
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
       <c r="R152">
         <v>1674.8472397339101</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18">
       <c r="A153" s="1">
         <v>44791</v>
       </c>
@@ -8643,18 +8640,18 @@
         <v>22.3</v>
       </c>
       <c r="M153">
-        <f>M139+0.1</f>
+        <f t="shared" si="6"/>
         <v>110.1</v>
       </c>
       <c r="N153">
-        <f>M153-0.1</f>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="R153">
         <v>1029.9192908304799</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18">
       <c r="A154" s="1">
         <v>44791</v>
       </c>
@@ -8692,18 +8689,18 @@
         <v>36.9</v>
       </c>
       <c r="M154">
-        <f>M140+0.1</f>
+        <f t="shared" si="6"/>
         <v>111.1</v>
       </c>
       <c r="N154">
-        <f>M154-0.1</f>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="R154">
         <v>1696.7289334480499</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18">
       <c r="A155" s="1">
         <v>44791</v>
       </c>
@@ -8741,18 +8738,18 @@
         <v>39.299999999999997</v>
       </c>
       <c r="M155">
-        <f>M141+0.1</f>
+        <f t="shared" si="6"/>
         <v>112.1</v>
       </c>
       <c r="N155">
-        <f>M155-0.1</f>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
       <c r="R155">
         <v>851.35361561397895</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18">
       <c r="A156" s="1">
         <v>44794</v>
       </c>
@@ -8796,7 +8793,7 @@
         <v>589.37908662408802</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18">
       <c r="A157" s="1">
         <v>44794</v>
       </c>
@@ -8840,7 +8837,7 @@
         <v>1840.3337613262199</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18">
       <c r="A158" s="1">
         <v>44794</v>
       </c>
@@ -8884,7 +8881,7 @@
         <v>827.98663947559601</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18">
       <c r="A159" s="1">
         <v>44794</v>
       </c>
@@ -8928,7 +8925,7 @@
         <v>2026.74958816662</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18">
       <c r="A160" s="1">
         <v>44794</v>
       </c>
@@ -8972,7 +8969,7 @@
         <v>2606.47378794013</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18">
       <c r="A161" s="1">
         <v>44794</v>
       </c>
@@ -9016,7 +9013,7 @@
         <v>1764.65347022285</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18">
       <c r="A162" s="1">
         <v>44794</v>
       </c>
@@ -9060,7 +9057,7 @@
         <v>1862.95991108203</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18">
       <c r="A163" s="1">
         <v>44794</v>
       </c>
@@ -9104,7 +9101,7 @@
         <v>793.69196613975703</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18">
       <c r="A164" s="1">
         <v>44794</v>
       </c>
@@ -9148,7 +9145,7 @@
         <v>2071.85873860316</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18">
       <c r="A165" s="1">
         <v>44794</v>
       </c>
@@ -9192,7 +9189,7 @@
         <v>2798.2247646404799</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18">
       <c r="A166" s="1">
         <v>44794</v>
       </c>
@@ -9236,7 +9233,7 @@
         <v>1341.09520970839</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18">
       <c r="A167" s="1">
         <v>44794</v>
       </c>
@@ -9280,7 +9277,7 @@
         <v>605.00724319472602</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18">
       <c r="A168" s="1">
         <v>44794</v>
       </c>
@@ -9324,7 +9321,7 @@
         <v>1347.0804908862001</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18">
       <c r="A169" s="1">
         <v>44794</v>
       </c>
@@ -9368,7 +9365,7 @@
         <v>740.07784850335202</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18">
       <c r="A170" s="1">
         <v>44794</v>
       </c>
@@ -9406,18 +9403,18 @@
         <v>5.9</v>
       </c>
       <c r="M170">
-        <f>M156+0.1</f>
+        <f t="shared" ref="M170:M183" si="8">M156+0.1</f>
         <v>113.1</v>
       </c>
       <c r="N170">
-        <f>M170-0.1</f>
+        <f t="shared" ref="N170:N183" si="9">M170-0.1</f>
         <v>113</v>
       </c>
       <c r="R170">
         <v>927.217972218103</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18">
       <c r="A171" s="1">
         <v>44794</v>
       </c>
@@ -9455,18 +9452,18 @@
         <v>46.8</v>
       </c>
       <c r="M171">
-        <f>M157+0.1</f>
+        <f t="shared" si="8"/>
         <v>114.1</v>
       </c>
       <c r="N171">
-        <f>M171-0.1</f>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="R171">
         <v>1961.69657497509</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18">
       <c r="A172" s="1">
         <v>44794</v>
       </c>
@@ -9504,18 +9501,18 @@
         <v>34.5</v>
       </c>
       <c r="M172">
-        <f>M158+0.1</f>
+        <f t="shared" si="8"/>
         <v>115.1</v>
       </c>
       <c r="N172">
-        <f>M172-0.1</f>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
       <c r="R172">
         <v>1056.62242972944</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18">
       <c r="A173" s="1">
         <v>44794</v>
       </c>
@@ -9553,18 +9550,18 @@
         <v>53.4</v>
       </c>
       <c r="M173">
-        <f>M159+0.1</f>
+        <f t="shared" si="8"/>
         <v>116.1</v>
       </c>
       <c r="N173">
-        <f>M173-0.1</f>
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
       <c r="R173">
         <v>2362.0941009960002</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18">
       <c r="A174" s="1">
         <v>44794</v>
       </c>
@@ -9602,18 +9599,18 @@
         <v>56</v>
       </c>
       <c r="M174">
-        <f>M160+0.1</f>
+        <f t="shared" si="8"/>
         <v>117.1</v>
       </c>
       <c r="N174">
-        <f>M174-0.1</f>
+        <f t="shared" si="9"/>
         <v>117</v>
       </c>
       <c r="R174">
         <v>2936.1893254789102</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18">
       <c r="A175" s="1">
         <v>44794</v>
       </c>
@@ -9651,18 +9648,18 @@
         <v>50.3</v>
       </c>
       <c r="M175">
-        <f>M161+0.1</f>
+        <f t="shared" si="8"/>
         <v>118.1</v>
       </c>
       <c r="N175">
-        <f>M175-0.1</f>
+        <f t="shared" si="9"/>
         <v>118</v>
       </c>
       <c r="R175">
         <v>1979.0684937541</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18">
       <c r="A176" s="1">
         <v>44794</v>
       </c>
@@ -9700,18 +9697,18 @@
         <v>58.6</v>
       </c>
       <c r="M176">
-        <f>M162+0.1</f>
+        <f t="shared" si="8"/>
         <v>119.1</v>
       </c>
       <c r="N176">
-        <f>M176-0.1</f>
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
       <c r="R176">
         <v>2249.8616320629699</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18">
       <c r="A177" s="1">
         <v>44794</v>
       </c>
@@ -9749,18 +9746,18 @@
         <v>37.200000000000003</v>
       </c>
       <c r="M177">
-        <f>M163+0.1</f>
+        <f t="shared" si="8"/>
         <v>120.1</v>
       </c>
       <c r="N177">
-        <f>M177-0.1</f>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="R177">
         <v>1033.79792803742</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18">
       <c r="A178" s="1">
         <v>44794</v>
       </c>
@@ -9798,18 +9795,18 @@
         <v>53.1</v>
       </c>
       <c r="M178">
-        <f>M164+0.1</f>
+        <f t="shared" si="8"/>
         <v>121.1</v>
       </c>
       <c r="N178">
-        <f>M178-0.1</f>
+        <f t="shared" si="9"/>
         <v>121</v>
       </c>
       <c r="R178">
         <v>2284.1162186659699</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18">
       <c r="A179" s="1">
         <v>44794</v>
       </c>
@@ -9847,18 +9844,18 @@
         <v>56.3</v>
       </c>
       <c r="M179">
-        <f>M165+0.1</f>
+        <f t="shared" si="8"/>
         <v>122.1</v>
       </c>
       <c r="N179">
-        <f>M179-0.1</f>
+        <f t="shared" si="9"/>
         <v>122</v>
       </c>
       <c r="R179">
         <v>3034.2313238522602</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18">
       <c r="A180" s="1">
         <v>44794</v>
       </c>
@@ -9896,18 +9893,18 @@
         <v>46</v>
       </c>
       <c r="M180">
-        <f>M166+0.1</f>
+        <f t="shared" si="8"/>
         <v>123.1</v>
       </c>
       <c r="N180">
-        <f>M180-0.1</f>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="R180">
         <v>1656.8428665448</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18">
       <c r="A181" s="1">
         <v>44794</v>
       </c>
@@ -9945,18 +9942,18 @@
         <v>17.7</v>
       </c>
       <c r="M181">
-        <f>M167+0.1</f>
+        <f t="shared" si="8"/>
         <v>124.1</v>
       </c>
       <c r="N181">
-        <f>M181-0.1</f>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="R181">
         <v>972.91125384177406</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18">
       <c r="A182" s="1">
         <v>44794</v>
       </c>
@@ -9994,18 +9991,18 @@
         <v>32.799999999999997</v>
       </c>
       <c r="M182">
-        <f>M168+0.1</f>
+        <f t="shared" si="8"/>
         <v>125.1</v>
       </c>
       <c r="N182">
-        <f>M182-0.1</f>
+        <f t="shared" si="9"/>
         <v>125</v>
       </c>
       <c r="R182">
         <v>1579.5681003621901</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18">
       <c r="A183" s="1">
         <v>44794</v>
       </c>
@@ -10043,18 +10040,18 @@
         <v>37.700000000000003</v>
       </c>
       <c r="M183">
-        <f>M169+0.1</f>
+        <f t="shared" si="8"/>
         <v>126.1</v>
       </c>
       <c r="N183">
-        <f>M183-0.1</f>
+        <f t="shared" si="9"/>
         <v>126</v>
       </c>
       <c r="R183">
         <v>797.92233124272002</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18">
       <c r="A184" s="1">
         <v>44797</v>
       </c>
@@ -10098,7 +10095,7 @@
         <v>596.35625425154399</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18">
       <c r="A185" s="1">
         <v>44797</v>
       </c>
@@ -10142,7 +10139,7 @@
         <v>1844.0441312726</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18">
       <c r="A186" s="1">
         <v>44797</v>
       </c>
@@ -10186,7 +10183,7 @@
         <v>811.83025149698005</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18">
       <c r="A187" s="1">
         <v>44797</v>
       </c>
@@ -10230,7 +10227,7 @@
         <v>2126.3941343953502</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18">
       <c r="A188" s="1">
         <v>44797</v>
       </c>
@@ -10274,7 +10271,7 @@
         <v>2746.0211602396798</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18">
       <c r="A189" s="1">
         <v>44797</v>
       </c>
@@ -10318,7 +10315,7 @@
         <v>1809.30265483636</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18">
       <c r="A190" s="1">
         <v>44797</v>
       </c>
@@ -10362,7 +10359,7 @@
         <v>1669.36712588623</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18">
       <c r="A191" s="1">
         <v>44797</v>
       </c>
@@ -10406,7 +10403,7 @@
         <v>746.27951390243902</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18">
       <c r="A192" s="1">
         <v>44797</v>
       </c>
@@ -10450,7 +10447,7 @@
         <v>2075.8906158085101</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18">
       <c r="A193" s="1">
         <v>44797</v>
       </c>
@@ -10494,7 +10491,7 @@
         <v>2694.0046549643698</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18">
       <c r="A194" s="1">
         <v>44797</v>
       </c>
@@ -10538,7 +10535,7 @@
         <v>1295.48496970725</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18">
       <c r="A195" s="1">
         <v>44797</v>
       </c>
@@ -10582,7 +10579,7 @@
         <v>588.47229059237998</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18">
       <c r="A196" s="1">
         <v>44797</v>
       </c>
@@ -10626,7 +10623,7 @@
         <v>1278.86727864061</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18">
       <c r="A197" s="1">
         <v>44797</v>
       </c>
@@ -10670,7 +10667,7 @@
         <v>729.78249405263796</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18">
       <c r="A198" s="1">
         <v>44797</v>
       </c>
@@ -10708,18 +10705,18 @@
         <v>31.9</v>
       </c>
       <c r="M198">
-        <f>M184+0.1</f>
+        <f t="shared" ref="M198:M211" si="10">M184+0.1</f>
         <v>127.1</v>
       </c>
       <c r="N198">
-        <f>M198-0.1</f>
+        <f t="shared" ref="N198:N211" si="11">M198-0.1</f>
         <v>127</v>
       </c>
       <c r="R198">
         <v>883.01817397166997</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18">
       <c r="A199" s="1">
         <v>44797</v>
       </c>
@@ -10757,18 +10754,18 @@
         <v>48.6</v>
       </c>
       <c r="M199">
-        <f>M185+0.1</f>
+        <f t="shared" si="10"/>
         <v>128.1</v>
       </c>
       <c r="N199">
-        <f>M199-0.1</f>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="R199">
         <v>2044.86627155269</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18">
       <c r="A200" s="1">
         <v>44797</v>
       </c>
@@ -10806,18 +10803,18 @@
         <v>33.799999999999997</v>
       </c>
       <c r="M200">
-        <f>M186+0.1</f>
+        <f t="shared" si="10"/>
         <v>129.1</v>
       </c>
       <c r="N200">
-        <f>M200-0.1</f>
+        <f t="shared" si="11"/>
         <v>129</v>
       </c>
       <c r="R200">
         <v>1087.8541131592599</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18">
       <c r="A201" s="1">
         <v>44797</v>
       </c>
@@ -10855,18 +10852,18 @@
         <v>32.1</v>
       </c>
       <c r="M201">
-        <f>M187+0.1</f>
+        <f t="shared" si="10"/>
         <v>130.1</v>
       </c>
       <c r="N201">
-        <f>M201-0.1</f>
+        <f t="shared" si="11"/>
         <v>130</v>
       </c>
       <c r="R201">
         <v>2269.5523365589802</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18">
       <c r="A202" s="1">
         <v>44797</v>
       </c>
@@ -10904,18 +10901,18 @@
         <v>55.6</v>
       </c>
       <c r="M202">
-        <f>M188+0.1</f>
+        <f t="shared" si="10"/>
         <v>131.1</v>
       </c>
       <c r="N202">
-        <f>M202-0.1</f>
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
       <c r="R202">
         <v>2878.8712133875301</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18">
       <c r="A203" s="1">
         <v>44797</v>
       </c>
@@ -10953,18 +10950,18 @@
         <v>47.6</v>
       </c>
       <c r="M203">
-        <f>M189+0.1</f>
+        <f t="shared" si="10"/>
         <v>132.1</v>
       </c>
       <c r="N203">
-        <f>M203-0.1</f>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
       <c r="R203">
         <v>1985.08916838602</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18">
       <c r="A204" s="1">
         <v>44797</v>
       </c>
@@ -11002,18 +10999,18 @@
         <v>56.1</v>
       </c>
       <c r="M204">
-        <f>M190+0.1</f>
+        <f t="shared" si="10"/>
         <v>133.1</v>
       </c>
       <c r="N204">
-        <f>M204-0.1</f>
+        <f t="shared" si="11"/>
         <v>133</v>
       </c>
       <c r="R204">
         <v>1890.57314560088</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18">
       <c r="A205" s="1">
         <v>44797</v>
       </c>
@@ -11051,18 +11048,18 @@
         <v>35.799999999999997</v>
       </c>
       <c r="M205">
-        <f>M191+0.1</f>
+        <f t="shared" si="10"/>
         <v>134.1</v>
       </c>
       <c r="N205">
-        <f>M205-0.1</f>
+        <f t="shared" si="11"/>
         <v>134</v>
       </c>
       <c r="R205">
         <v>1049.3917091662199</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18">
       <c r="A206" s="1">
         <v>44797</v>
       </c>
@@ -11100,18 +11097,18 @@
         <v>52.2</v>
       </c>
       <c r="M206">
-        <f>M192+0.1</f>
+        <f t="shared" si="10"/>
         <v>135.1</v>
       </c>
       <c r="N206">
-        <f>M206-0.1</f>
+        <f t="shared" si="11"/>
         <v>135</v>
       </c>
       <c r="R206">
         <v>2294.32021873443</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18">
       <c r="A207" s="1">
         <v>44797</v>
       </c>
@@ -11149,18 +11146,18 @@
         <v>50.5</v>
       </c>
       <c r="M207">
-        <f>M193+0.1</f>
+        <f t="shared" si="10"/>
         <v>136.1</v>
       </c>
       <c r="N207">
-        <f>M207-0.1</f>
+        <f t="shared" si="11"/>
         <v>136</v>
       </c>
       <c r="R207">
         <v>3004.6297923740399</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18">
       <c r="A208" s="1">
         <v>44797</v>
       </c>
@@ -11198,18 +11195,18 @@
         <v>33</v>
       </c>
       <c r="M208">
-        <f>M194+0.1</f>
+        <f t="shared" si="10"/>
         <v>137.1</v>
       </c>
       <c r="N208">
-        <f>M208-0.1</f>
+        <f t="shared" si="11"/>
         <v>137</v>
       </c>
       <c r="R208">
         <v>1576.4844374050101</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18">
       <c r="A209" s="1">
         <v>44797</v>
       </c>
@@ -11247,18 +11244,18 @@
         <v>32</v>
       </c>
       <c r="M209">
-        <f>M195+0.1</f>
+        <f t="shared" si="10"/>
         <v>138.1</v>
       </c>
       <c r="N209">
-        <f>M209-0.1</f>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
       <c r="R209">
         <v>951.33824072131097</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18">
       <c r="A210" s="1">
         <v>44797</v>
       </c>
@@ -11296,18 +11293,18 @@
         <v>44</v>
       </c>
       <c r="M210">
-        <f>M196+0.1</f>
+        <f t="shared" si="10"/>
         <v>139.1</v>
       </c>
       <c r="N210">
-        <f>M210-0.1</f>
+        <f t="shared" si="11"/>
         <v>139</v>
       </c>
       <c r="R210">
         <v>1560.11738784967</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18">
       <c r="A211" s="1">
         <v>44797</v>
       </c>
@@ -11345,18 +11342,18 @@
         <v>54.4</v>
       </c>
       <c r="M211">
-        <f>M197+0.1</f>
+        <f t="shared" si="10"/>
         <v>140.1</v>
       </c>
       <c r="N211">
-        <f>M211-0.1</f>
+        <f t="shared" si="11"/>
         <v>140</v>
       </c>
       <c r="R211">
         <v>777.72297728625995</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18">
       <c r="A212" s="1">
         <v>44800</v>
       </c>
@@ -11400,7 +11397,7 @@
         <v>629.59558299288403</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18">
       <c r="A213" s="1">
         <v>44800</v>
       </c>
@@ -11444,7 +11441,7 @@
         <v>1788.4732482033401</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18">
       <c r="A214" s="1">
         <v>44800</v>
       </c>
@@ -11488,7 +11485,7 @@
         <v>883.92290025723696</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18">
       <c r="A215" s="1">
         <v>44800</v>
       </c>
@@ -11532,7 +11529,7 @@
         <v>2089.0618803482898</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18">
       <c r="A216" s="1">
         <v>44800</v>
       </c>
@@ -11576,7 +11573,7 @@
         <v>2815.26224216215</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18">
       <c r="A217" s="1">
         <v>44800</v>
       </c>
@@ -11620,7 +11617,7 @@
         <v>1822.8953628253601</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18">
       <c r="A218" s="1">
         <v>44800</v>
       </c>
@@ -11664,7 +11661,7 @@
         <v>1894.9678679280501</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18">
       <c r="A219" s="1">
         <v>44800</v>
       </c>
@@ -11708,7 +11705,7 @@
         <v>833.03148667679602</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18">
       <c r="A220" s="1">
         <v>44800</v>
       </c>
@@ -11752,7 +11749,7 @@
         <v>2103.7863727470399</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18">
       <c r="A221" s="1">
         <v>44800</v>
       </c>
@@ -11796,7 +11793,7 @@
         <v>2779.1739138426601</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18">
       <c r="A222" s="1">
         <v>44800</v>
       </c>
@@ -11840,7 +11837,7 @@
         <v>1364.3873367219601</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18">
       <c r="A223" s="1">
         <v>44800</v>
       </c>
@@ -11884,7 +11881,7 @@
         <v>647.33928500642901</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18">
       <c r="A224" s="1">
         <v>44800</v>
       </c>
@@ -11928,7 +11925,7 @@
         <v>1351.2524530867099</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18">
       <c r="A225" s="1">
         <v>44800</v>
       </c>
@@ -11972,7 +11969,7 @@
         <v>798.80185331223799</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18">
       <c r="A226" s="1">
         <v>44800</v>
       </c>
@@ -12010,18 +12007,18 @@
         <v>29</v>
       </c>
       <c r="M226">
-        <f>M212+0.1</f>
+        <f t="shared" ref="M226:M239" si="12">M212+0.1</f>
         <v>141.1</v>
       </c>
       <c r="N226">
-        <f>M226-0.1</f>
+        <f t="shared" ref="N226:N239" si="13">M226-0.1</f>
         <v>141</v>
       </c>
       <c r="R226">
         <v>936.08189020304599</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18">
       <c r="A227" s="1">
         <v>44800</v>
       </c>
@@ -12059,18 +12056,18 @@
         <v>46.2</v>
       </c>
       <c r="M227">
-        <f>M213+0.1</f>
+        <f t="shared" si="12"/>
         <v>142.1</v>
       </c>
       <c r="N227">
-        <f>M227-0.1</f>
+        <f t="shared" si="13"/>
         <v>142</v>
       </c>
       <c r="R227">
         <v>2029.4830342647499</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18">
       <c r="A228" s="1">
         <v>44800</v>
       </c>
@@ -12108,18 +12105,18 @@
         <v>31.4</v>
       </c>
       <c r="M228">
-        <f>M214+0.1</f>
+        <f t="shared" si="12"/>
         <v>143.1</v>
       </c>
       <c r="N228">
-        <f>M228-0.1</f>
+        <f t="shared" si="13"/>
         <v>143</v>
       </c>
       <c r="R228">
         <v>1050.0053421612299</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18">
       <c r="A229" s="1">
         <v>44800</v>
       </c>
@@ -12157,18 +12154,18 @@
         <v>51.1</v>
       </c>
       <c r="M229">
-        <f>M215+0.1</f>
+        <f t="shared" si="12"/>
         <v>144.1</v>
       </c>
       <c r="N229">
-        <f>M229-0.1</f>
+        <f t="shared" si="13"/>
         <v>144</v>
       </c>
       <c r="R229">
         <v>2273.8964081569702</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18">
       <c r="A230" s="1">
         <v>44800</v>
       </c>
@@ -12206,18 +12203,18 @@
         <v>56.9</v>
       </c>
       <c r="M230">
-        <f>M216+0.1</f>
+        <f t="shared" si="12"/>
         <v>145.1</v>
       </c>
       <c r="N230">
-        <f>M230-0.1</f>
+        <f t="shared" si="13"/>
         <v>145</v>
       </c>
       <c r="R230">
         <v>2893.5745902127201</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18">
       <c r="A231" s="1">
         <v>44800</v>
       </c>
@@ -12255,18 +12252,18 @@
         <v>48.5</v>
       </c>
       <c r="M231">
-        <f>M217+0.1</f>
+        <f t="shared" si="12"/>
         <v>146.1</v>
       </c>
       <c r="N231">
-        <f>M231-0.1</f>
+        <f t="shared" si="13"/>
         <v>146</v>
       </c>
       <c r="R231">
         <v>1982.95459061621</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18">
       <c r="A232" s="1">
         <v>44800</v>
       </c>
@@ -12304,18 +12301,18 @@
         <v>54</v>
       </c>
       <c r="M232">
-        <f>M218+0.1</f>
+        <f t="shared" si="12"/>
         <v>147.1</v>
       </c>
       <c r="N232">
-        <f>M232-0.1</f>
+        <f t="shared" si="13"/>
         <v>147</v>
       </c>
       <c r="R232">
         <v>1678.35443145454</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18">
       <c r="A233" s="1">
         <v>44800</v>
       </c>
@@ -12353,18 +12350,18 @@
         <v>34.1</v>
       </c>
       <c r="M233">
-        <f>M219+0.1</f>
+        <f t="shared" si="12"/>
         <v>148.1</v>
       </c>
       <c r="N233">
-        <f>M233-0.1</f>
+        <f t="shared" si="13"/>
         <v>148</v>
       </c>
       <c r="R233">
         <v>986.41173269399803</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18">
       <c r="A234" s="1">
         <v>44800</v>
       </c>
@@ -12402,18 +12399,18 @@
         <v>53.5</v>
       </c>
       <c r="M234">
-        <f>M220+0.1</f>
+        <f t="shared" si="12"/>
         <v>149.1</v>
       </c>
       <c r="N234">
-        <f>M234-0.1</f>
+        <f t="shared" si="13"/>
         <v>149</v>
       </c>
       <c r="R234">
         <v>2207.9178680709301</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18">
       <c r="A235" s="1">
         <v>44800</v>
       </c>
@@ -12451,18 +12448,18 @@
         <v>52</v>
       </c>
       <c r="M235">
-        <f>M221+0.1</f>
+        <f t="shared" si="12"/>
         <v>150.1</v>
       </c>
       <c r="N235">
-        <f>M235-0.1</f>
+        <f t="shared" si="13"/>
         <v>150</v>
       </c>
       <c r="R235">
         <v>2836.2359663397101</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18">
       <c r="A236" s="1">
         <v>44800</v>
       </c>
@@ -12500,18 +12497,18 @@
         <v>41.8</v>
       </c>
       <c r="M236">
-        <f>M222+0.1</f>
+        <f t="shared" si="12"/>
         <v>151.1</v>
       </c>
       <c r="N236">
-        <f>M236-0.1</f>
+        <f t="shared" si="13"/>
         <v>151</v>
       </c>
       <c r="R236">
         <v>1514.18529300304</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18">
       <c r="A237" s="1">
         <v>44800</v>
       </c>
@@ -12549,18 +12546,18 @@
         <v>33.6</v>
       </c>
       <c r="M237">
-        <f>M223+0.1</f>
+        <f t="shared" si="12"/>
         <v>152.1</v>
       </c>
       <c r="N237">
-        <f>M237-0.1</f>
+        <f t="shared" si="13"/>
         <v>152</v>
       </c>
       <c r="R237">
         <v>921.06676101427104</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18">
       <c r="A238" s="1">
         <v>44800</v>
       </c>
@@ -12598,18 +12595,18 @@
         <v>43.7</v>
       </c>
       <c r="M238">
-        <f>M224+0.1</f>
+        <f t="shared" si="12"/>
         <v>153.1</v>
       </c>
       <c r="N238">
-        <f>M238-0.1</f>
+        <f t="shared" si="13"/>
         <v>153</v>
       </c>
       <c r="R238">
         <v>1475.0655210672601</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18">
       <c r="A239" s="1">
         <v>44800</v>
       </c>
@@ -12647,18 +12644,18 @@
         <v>35.200000000000003</v>
       </c>
       <c r="M239">
-        <f>M225+0.1</f>
+        <f t="shared" si="12"/>
         <v>154.1</v>
       </c>
       <c r="N239">
-        <f>M239-0.1</f>
+        <f t="shared" si="13"/>
         <v>154</v>
       </c>
       <c r="R239">
         <v>739.89840443868104</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18">
       <c r="A240" s="1">
         <v>44803</v>
       </c>
@@ -12702,7 +12699,7 @@
         <v>622.72513697747797</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18">
       <c r="A241" s="1">
         <v>44803</v>
       </c>
@@ -12746,7 +12743,7 @@
         <v>1891.79983800797</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18">
       <c r="A242" s="1">
         <v>44803</v>
       </c>
@@ -12790,7 +12787,7 @@
         <v>877.25833350427399</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18">
       <c r="A243" s="1">
         <v>44803</v>
       </c>
@@ -12834,7 +12831,7 @@
         <v>2118.59009280282</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18">
       <c r="A244" s="1">
         <v>44803</v>
       </c>
@@ -12878,7 +12875,7 @@
         <v>2802.05707446721</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18">
       <c r="A245" s="1">
         <v>44803</v>
       </c>
@@ -12922,7 +12919,7 @@
         <v>1877.09634063565</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18">
       <c r="A246" s="1">
         <v>44803</v>
       </c>
@@ -12966,7 +12963,7 @@
         <v>2077.80322053694</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18">
       <c r="A247" s="1">
         <v>44803</v>
       </c>
@@ -13013,7 +13010,7 @@
         <v>852.73938217929401</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18">
       <c r="A248" s="1">
         <v>44803</v>
       </c>
@@ -13057,7 +13054,7 @@
         <v>2174.7839597144398</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18">
       <c r="A249" s="1">
         <v>44803</v>
       </c>
@@ -13101,7 +13098,7 @@
         <v>2872.8818620480502</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18">
       <c r="A250" s="1">
         <v>44803</v>
       </c>
@@ -13145,7 +13142,7 @@
         <v>1367.6799072209501</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18">
       <c r="A251" s="1">
         <v>44803</v>
       </c>
@@ -13189,7 +13186,7 @@
         <v>640.680732119646</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18">
       <c r="A252" s="1">
         <v>44803</v>
       </c>
@@ -13236,7 +13233,7 @@
         <v>1355.76441272282</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18">
       <c r="A253" s="1">
         <v>44803</v>
       </c>
@@ -13280,7 +13277,7 @@
         <v>940.79121165683705</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18">
       <c r="A254" s="1">
         <v>44803</v>
       </c>
@@ -13318,18 +13315,18 @@
         <v>25.2</v>
       </c>
       <c r="M254">
-        <f>M240+0.1</f>
+        <f t="shared" ref="M254:M281" si="14">M240+0.1</f>
         <v>155.1</v>
       </c>
       <c r="N254">
-        <f>M254-0.1</f>
+        <f t="shared" ref="N254:N281" si="15">M254-0.1</f>
         <v>155</v>
       </c>
       <c r="R254">
         <v>876.56169721790604</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18">
       <c r="A255" s="1">
         <v>44803</v>
       </c>
@@ -13367,18 +13364,18 @@
         <v>47.5</v>
       </c>
       <c r="M255">
-        <f>M241+0.1</f>
+        <f t="shared" si="14"/>
         <v>156.1</v>
       </c>
       <c r="N255">
-        <f>M255-0.1</f>
+        <f t="shared" si="15"/>
         <v>156</v>
       </c>
       <c r="R255">
         <v>1926.5149968974799</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18">
       <c r="A256" s="1">
         <v>44803</v>
       </c>
@@ -13416,18 +13413,18 @@
         <v>34.6</v>
       </c>
       <c r="M256">
-        <f>M242+0.1</f>
+        <f t="shared" si="14"/>
         <v>157.1</v>
       </c>
       <c r="N256">
-        <f>M256-0.1</f>
+        <f t="shared" si="15"/>
         <v>157</v>
       </c>
       <c r="R256">
         <v>1012.74373667672</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18">
       <c r="A257" s="1">
         <v>44803</v>
       </c>
@@ -13465,18 +13462,18 @@
         <v>54.2</v>
       </c>
       <c r="M257">
-        <f>M243+0.1</f>
+        <f t="shared" si="14"/>
         <v>158.1</v>
       </c>
       <c r="N257">
-        <f>M257-0.1</f>
+        <f t="shared" si="15"/>
         <v>158</v>
       </c>
       <c r="R257">
         <v>2142.96831606566</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18">
       <c r="A258" s="1">
         <v>44803</v>
       </c>
@@ -13514,18 +13511,18 @@
         <v>54.1</v>
       </c>
       <c r="M258">
-        <f>M244+0.1</f>
+        <f t="shared" si="14"/>
         <v>159.1</v>
       </c>
       <c r="N258">
-        <f>M258-0.1</f>
+        <f t="shared" si="15"/>
         <v>159</v>
       </c>
       <c r="R258">
         <v>2937.0602593127601</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18">
       <c r="A259" s="1">
         <v>44803</v>
       </c>
@@ -13563,18 +13560,18 @@
         <v>47.7</v>
       </c>
       <c r="M259">
-        <f>M245+0.1</f>
+        <f t="shared" si="14"/>
         <v>160.1</v>
       </c>
       <c r="N259">
-        <f>M259-0.1</f>
+        <f t="shared" si="15"/>
         <v>160</v>
       </c>
       <c r="R259">
         <v>1908.8115857559201</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18">
       <c r="A260" s="1">
         <v>44803</v>
       </c>
@@ -13612,18 +13609,18 @@
         <v>59</v>
       </c>
       <c r="M260">
-        <f>M246+0.1</f>
+        <f t="shared" si="14"/>
         <v>161.1</v>
       </c>
       <c r="N260">
-        <f>M260-0.1</f>
+        <f t="shared" si="15"/>
         <v>161</v>
       </c>
       <c r="R260">
         <v>1907.26658861436</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18">
       <c r="A261" s="1">
         <v>44803</v>
       </c>
@@ -13661,18 +13658,18 @@
         <v>38</v>
       </c>
       <c r="M261">
-        <f>M247+0.1</f>
+        <f t="shared" si="14"/>
         <v>162.1</v>
       </c>
       <c r="N261">
-        <f>M261-0.1</f>
+        <f t="shared" si="15"/>
         <v>162</v>
       </c>
       <c r="R261">
         <v>1023.58619915421</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18">
       <c r="A262" s="1">
         <v>44803</v>
       </c>
@@ -13710,18 +13707,18 @@
         <v>56.9</v>
       </c>
       <c r="M262">
-        <f>M248+0.1</f>
+        <f t="shared" si="14"/>
         <v>163.1</v>
       </c>
       <c r="N262">
-        <f>M262-0.1</f>
+        <f t="shared" si="15"/>
         <v>163</v>
       </c>
       <c r="R262">
         <v>2179.9338919328402</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18">
       <c r="A263" s="1">
         <v>44803</v>
       </c>
@@ -13759,18 +13756,18 @@
         <v>59.3</v>
       </c>
       <c r="M263">
-        <f>M249+0.1</f>
+        <f t="shared" si="14"/>
         <v>164.1</v>
       </c>
       <c r="N263">
-        <f>M263-0.1</f>
+        <f t="shared" si="15"/>
         <v>164</v>
       </c>
       <c r="R263">
         <v>2848.6741427541201</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18">
       <c r="A264" s="1">
         <v>44803</v>
       </c>
@@ -13808,18 +13805,18 @@
         <v>41</v>
       </c>
       <c r="M264">
-        <f>M250+0.1</f>
+        <f t="shared" si="14"/>
         <v>165.1</v>
       </c>
       <c r="N264">
-        <f>M264-0.1</f>
+        <f t="shared" si="15"/>
         <v>165</v>
       </c>
       <c r="R264">
         <v>1472.52635789898</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18">
       <c r="A265" s="1">
         <v>44803</v>
       </c>
@@ -13857,18 +13854,18 @@
         <v>35.799999999999997</v>
       </c>
       <c r="M265">
-        <f>M251+0.1</f>
+        <f t="shared" si="14"/>
         <v>166.1</v>
       </c>
       <c r="N265">
-        <f>M265-0.1</f>
+        <f t="shared" si="15"/>
         <v>166</v>
       </c>
       <c r="R265">
         <v>857.02316073547399</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18">
       <c r="A266" s="1">
         <v>44803</v>
       </c>
@@ -13906,18 +13903,18 @@
         <v>42</v>
       </c>
       <c r="M266">
-        <f>M252+0.1</f>
+        <f t="shared" si="14"/>
         <v>167.1</v>
       </c>
       <c r="N266">
-        <f>M266-0.1</f>
+        <f t="shared" si="15"/>
         <v>167</v>
       </c>
       <c r="R266">
         <v>1459.4349207723601</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18">
       <c r="A267" s="1">
         <v>44803</v>
       </c>
@@ -13955,18 +13952,18 @@
         <v>38.5</v>
       </c>
       <c r="M267">
-        <f>M253+0.1</f>
+        <f t="shared" si="14"/>
         <v>168.1</v>
       </c>
       <c r="N267">
-        <f>M267-0.1</f>
+        <f t="shared" si="15"/>
         <v>168</v>
       </c>
       <c r="R267">
         <v>846.47219289048201</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18">
       <c r="A268" s="1">
         <v>44806</v>
       </c>
@@ -14004,18 +14001,18 @@
         <v>36.4</v>
       </c>
       <c r="M268">
-        <f>M254+0.1</f>
+        <f t="shared" si="14"/>
         <v>155.19999999999999</v>
       </c>
       <c r="N268">
-        <f>M268-0.1</f>
+        <f t="shared" si="15"/>
         <v>155.1</v>
       </c>
       <c r="R268">
         <v>789.66827388957302</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18">
       <c r="A269" s="1">
         <v>44806</v>
       </c>
@@ -14053,18 +14050,18 @@
         <v>49</v>
       </c>
       <c r="M269">
-        <f>M255+0.1</f>
+        <f t="shared" si="14"/>
         <v>156.19999999999999</v>
       </c>
       <c r="N269">
-        <f>M269-0.1</f>
+        <f t="shared" si="15"/>
         <v>156.1</v>
       </c>
       <c r="R269">
         <v>1969.3766248052</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18">
       <c r="A270" s="1">
         <v>44806</v>
       </c>
@@ -14102,18 +14099,18 @@
         <v>34.9</v>
       </c>
       <c r="M270">
-        <f>M256+0.1</f>
+        <f t="shared" si="14"/>
         <v>157.19999999999999</v>
       </c>
       <c r="N270">
-        <f>M270-0.1</f>
+        <f t="shared" si="15"/>
         <v>157.1</v>
       </c>
       <c r="R270">
         <v>1013.31368554195</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18">
       <c r="A271" s="1">
         <v>44806</v>
       </c>
@@ -14151,18 +14148,18 @@
         <v>52.8</v>
       </c>
       <c r="M271">
-        <f>M257+0.1</f>
+        <f t="shared" si="14"/>
         <v>158.19999999999999</v>
       </c>
       <c r="N271">
-        <f>M271-0.1</f>
+        <f t="shared" si="15"/>
         <v>158.1</v>
       </c>
       <c r="R271">
         <v>2198.0667492192401</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18">
       <c r="A272" s="1">
         <v>44806</v>
       </c>
@@ -14200,18 +14197,18 @@
         <v>54.3</v>
       </c>
       <c r="M272">
-        <f>M258+0.1</f>
+        <f t="shared" si="14"/>
         <v>159.19999999999999</v>
       </c>
       <c r="N272">
-        <f>M272-0.1</f>
+        <f t="shared" si="15"/>
         <v>159.1</v>
       </c>
       <c r="R272">
         <v>2899.5686128930001</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18">
       <c r="A273" s="1">
         <v>44806</v>
       </c>
@@ -14249,18 +14246,18 @@
         <v>50.2</v>
       </c>
       <c r="M273">
-        <f>M259+0.1</f>
+        <f t="shared" si="14"/>
         <v>160.19999999999999</v>
       </c>
       <c r="N273">
-        <f>M273-0.1</f>
+        <f t="shared" si="15"/>
         <v>160.1</v>
       </c>
       <c r="R273">
         <v>1963.13264400158</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18">
       <c r="A274" s="1">
         <v>44806</v>
       </c>
@@ -14298,18 +14295,18 @@
         <v>60.3</v>
       </c>
       <c r="M274">
-        <f>M260+0.1</f>
+        <f t="shared" si="14"/>
         <v>161.19999999999999</v>
       </c>
       <c r="N274">
-        <f>M274-0.1</f>
+        <f t="shared" si="15"/>
         <v>161.1</v>
       </c>
       <c r="R274">
         <v>2095.1245175020599</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18">
       <c r="A275" s="1">
         <v>44806</v>
       </c>
@@ -14347,18 +14344,18 @@
         <v>37.9</v>
       </c>
       <c r="M275">
-        <f>M261+0.1</f>
+        <f t="shared" si="14"/>
         <v>162.19999999999999</v>
       </c>
       <c r="N275">
-        <f>M275-0.1</f>
+        <f t="shared" si="15"/>
         <v>162.1</v>
       </c>
       <c r="R275">
         <v>1019.5291842484399</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18">
       <c r="A276" s="1">
         <v>44806</v>
       </c>
@@ -14396,18 +14393,18 @@
         <v>54.1</v>
       </c>
       <c r="M276">
-        <f>M262+0.1</f>
+        <f t="shared" si="14"/>
         <v>163.19999999999999</v>
       </c>
       <c r="N276">
-        <f>M276-0.1</f>
+        <f t="shared" si="15"/>
         <v>163.1</v>
       </c>
       <c r="R276">
         <v>2266.5485421028302</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18">
       <c r="A277" s="1">
         <v>44806</v>
       </c>
@@ -14445,18 +14442,18 @@
         <v>55.1</v>
       </c>
       <c r="M277">
-        <f>M263+0.1</f>
+        <f t="shared" si="14"/>
         <v>164.2</v>
       </c>
       <c r="N277">
-        <f>M277-0.1</f>
+        <f t="shared" si="15"/>
         <v>164.1</v>
       </c>
       <c r="R277">
         <v>2956.4850621004398</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18">
       <c r="A278" s="1">
         <v>44806</v>
       </c>
@@ -14494,18 +14491,18 @@
         <v>39.700000000000003</v>
       </c>
       <c r="M278">
-        <f>M264+0.1</f>
+        <f t="shared" si="14"/>
         <v>165.2</v>
       </c>
       <c r="N278">
-        <f>M278-0.1</f>
+        <f t="shared" si="15"/>
         <v>165.1</v>
       </c>
       <c r="R278">
         <v>1501.1038923302201</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18">
       <c r="A279" s="1">
         <v>44806</v>
       </c>
@@ -14543,18 +14540,18 @@
         <v>30.7</v>
       </c>
       <c r="M279">
-        <f>M265+0.1</f>
+        <f t="shared" si="14"/>
         <v>166.2</v>
       </c>
       <c r="N279">
-        <f>M279-0.1</f>
+        <f t="shared" si="15"/>
         <v>166.1</v>
       </c>
       <c r="R279">
         <v>833.67676072743598</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18">
       <c r="A280" s="1">
         <v>44806</v>
       </c>
@@ -14592,18 +14589,18 @@
         <v>43.8</v>
       </c>
       <c r="M280">
-        <f>M266+0.1</f>
+        <f t="shared" si="14"/>
         <v>167.2</v>
       </c>
       <c r="N280">
-        <f>M280-0.1</f>
+        <f t="shared" si="15"/>
         <v>167.1</v>
       </c>
       <c r="R280">
         <v>1469.6128713907999</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18">
       <c r="A281" s="1">
         <v>44806</v>
       </c>
@@ -14641,11 +14638,11 @@
         <v>38.9</v>
       </c>
       <c r="M281">
-        <f>M267+0.1</f>
+        <f t="shared" si="14"/>
         <v>168.2</v>
       </c>
       <c r="N281">
-        <f>M281-0.1</f>
+        <f t="shared" si="15"/>
         <v>168.1</v>
       </c>
       <c r="R281">
@@ -14654,5 +14651,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>